--- a/산출물/내가 한 거/13.프로그램목록.xlsx
+++ b/산출물/내가 한 거/13.프로그램목록.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="5" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="901">
   <si>
     <t>승인자</t>
   </si>
@@ -2898,6 +2898,13 @@
   </si>
   <si>
     <t>채용 과정 현황</t>
+  </si>
+  <si>
+    <t>PG-PRC0-002</t>
+  </si>
+  <si>
+    <t>내 입사 지원에 따른 채용 현황을 볼 수 있다.
+제출 서류를 관리할 수도 있다.</t>
   </si>
 </sst>
 </file>
@@ -4951,10 +4958,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="294640" y="4394835"/>
-            <a:ext cx="2915920" cy="756920"/>
-            <a:chOff x="294640" y="4394835"/>
-            <a:chExt cx="2915920" cy="756920"/>
+            <a:off x="257175" y="4394835"/>
+            <a:ext cx="2916555" cy="756920"/>
+            <a:chOff x="257175" y="4394835"/>
+            <a:chExt cx="2916555" cy="756920"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
@@ -4966,8 +4973,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="294640" y="4403725"/>
-              <a:ext cx="2907030" cy="737870"/>
+              <a:off x="257175" y="4403725"/>
+              <a:ext cx="2907665" cy="737870"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
             <a:noFill/>
@@ -4991,8 +4998,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="294640" y="4641215"/>
-              <a:ext cx="2915920" cy="46990"/>
+              <a:off x="257175" y="4641215"/>
+              <a:ext cx="2916555" cy="46990"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
             <a:noFill/>
@@ -5030,8 +5037,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="294640" y="4868545"/>
-              <a:ext cx="2915920" cy="36195"/>
+              <a:off x="257175" y="4868545"/>
+              <a:ext cx="2916555" cy="36195"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
             <a:noFill/>
@@ -5069,8 +5076,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1352550" y="4403725"/>
-              <a:ext cx="38100" cy="748030"/>
+              <a:off x="1315720" y="4403725"/>
+              <a:ext cx="37465" cy="748030"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
             <a:noFill/>
@@ -5110,7 +5117,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="340995" y="4403725"/>
+              <a:off x="303530" y="4403725"/>
               <a:ext cx="1067435" cy="284480"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -5158,7 +5165,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="340995" y="4620895"/>
+              <a:off x="303530" y="4620895"/>
               <a:ext cx="1067435" cy="304165"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -5206,7 +5213,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="340995" y="4885055"/>
+              <a:off x="303530" y="4885055"/>
               <a:ext cx="1067435" cy="248920"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -5254,8 +5261,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1621155" y="4394835"/>
-              <a:ext cx="1469390" cy="300990"/>
+              <a:off x="1583690" y="4394835"/>
+              <a:ext cx="1470025" cy="300990"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
             <a:noFill/>
@@ -5302,7 +5309,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1603375" y="4641215"/>
+              <a:off x="1566545" y="4641215"/>
               <a:ext cx="1475740" cy="274320"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -5350,7 +5357,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1603375" y="4868545"/>
+              <a:off x="1566545" y="4868545"/>
               <a:ext cx="1466850" cy="253365"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -5399,8 +5406,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5959475" y="4991735"/>
-            <a:ext cx="2860675" cy="283210"/>
+            <a:off x="5922645" y="4991735"/>
+            <a:ext cx="2860040" cy="283210"/>
           </a:xfrm>
           <a:prstGeom prst="rect"/>
           <a:noFill/>
@@ -7561,7 +7568,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7798,8 +7805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8037,7 +8044,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8155,7 +8162,7 @@
         <v>898</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>837</v>
+        <v>900</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>754</v>
@@ -8275,7 +8282,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
